--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_21_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_21_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655046.438393528</v>
+        <v>584121.0914319066</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>13388111.40469945</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10333863.53660934</v>
+        <v>10244266.48289961</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7566408.126310139</v>
+        <v>7626669.787593867</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.91528667358034</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.65357118422321</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>33.05042947603769</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>81.61928733384133</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>92.66494928910237</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>81.61928733384124</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>39.04780860145886</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>42.5714787323825</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="X3" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>92.66494928910237</v>
       </c>
     </row>
     <row r="4">
@@ -895,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.04004747064909</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>57.96571614961832</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="G5" t="n">
-        <v>63.18530757464288</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>98.04004747064909</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>98.04004747064909</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>23.16836623750476</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>23.65357118422315</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -986,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="H6" t="n">
-        <v>98.04004747064909</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>65.25555743606904</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>32.80684643104416</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.445589275287394</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>83.8857281403962</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>81.61928733384144</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>98.04004747064909</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>96.7732114978063</v>
       </c>
       <c r="D8" t="n">
-        <v>133.4802209296328</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>139.2987682391609</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>139.2987682391609</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.04641172483198</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,28 +1177,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.007567919118912</v>
+        <v>3.392306864003132</v>
       </c>
       <c r="R8" t="n">
-        <v>89.76653441538423</v>
+        <v>22.52883670324339</v>
       </c>
       <c r="S8" t="n">
-        <v>133.4802209296328</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>10.74886453548539</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>133.4802209296328</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>139.2987682391609</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1256,31 +1256,31 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1.528348892133351</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>133.4802209296328</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>133.4802209296328</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>133.4802209296328</v>
+        <v>121.1660061729195</v>
       </c>
       <c r="V9" t="n">
-        <v>117.5693785948205</v>
+        <v>139.2987682391609</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>139.2987682391609</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>139.2987682391609</v>
       </c>
     </row>
     <row r="10">
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>10.17526832413922</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.30773875396514</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>15.08252089189824</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H11" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>78.16360657708287</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>72.46905619685222</v>
+        <v>221.8617776339542</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>36.29946757904879</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>27.25699312606312</v>
       </c>
       <c r="W12" t="n">
-        <v>238.4650355671144</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>7.256470454726985</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.5398113612452</v>
+        <v>31.68046530976811</v>
       </c>
       <c r="I13" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.15430933923915</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.59469128425542</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H14" t="n">
-        <v>105.0430334365242</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>78.16360657708287</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.517118575932</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>36.29946757904879</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>238.4650355671144</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>35.36287627513406</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.59469128425542</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>144.2957156879723</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>185.627950660891</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>148.0057396406666</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>158.4065985365999</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1931,16 +1931,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>137.189489252864</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>139.1386354747067</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.15430933923916</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2046,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.59469128425545</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>16.98724090164946</v>
+        <v>185.627950660891</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>229.4286007001994</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1801837919243</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91.0500731060657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>36.2994675790488</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T21" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8205739680685</v>
+        <v>196.6802152659156</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>32.19847691108455</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T22" t="n">
-        <v>221.3678187343026</v>
+        <v>95.13127805592882</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>221.5717309955938</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>229.7965692041365</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.91073356940604</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>184.1110579343354</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.5619386713033</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>138.8992180371975</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396202</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>1.154551188815429</v>
       </c>
       <c r="W28" t="n">
-        <v>87.93270968653104</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>56.95878470060032</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>7.160548332618097</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2888,7 +2888,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851005</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247745</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>35.12124230888519</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>87.6215495555529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>334.9753613846901</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>88.01624809068203</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>12.80633068795221</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>228.7234998692131</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>126.7498226612763</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>318.4070179429945</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>58.28185552386316</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>166.3516656678852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>95.92502041856103</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>5.732180395782861</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>87.932709686531</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>81.77200357366304</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>83.13723023285674</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>324.3723742885353</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,7 +3836,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.5968754185096</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
         <v>18.81721868247746</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>108.5714959765556</v>
+        <v>5.979727346321427</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>40.32753059712314</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>7.160548332617126</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>48.21534234085829</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>134.7466378365496</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.58015217906792</v>
+        <v>101.0141548210094</v>
       </c>
       <c r="C2" t="n">
-        <v>32.58015217906792</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="D2" t="n">
-        <v>32.58015217906792</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="E2" t="n">
-        <v>32.58015217906792</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="F2" t="n">
-        <v>32.58015217906792</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="G2" t="n">
-        <v>32.58015217906792</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="H2" t="n">
-        <v>32.58015217906792</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="I2" t="n">
-        <v>32.58015217906792</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="J2" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="K2" t="n">
-        <v>21.18357364821454</v>
+        <v>21.18357364821463</v>
       </c>
       <c r="L2" t="n">
-        <v>75.16870670940376</v>
+        <v>75.16870670940371</v>
       </c>
       <c r="M2" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056151</v>
       </c>
       <c r="N2" t="n">
-        <v>258.6453063018263</v>
+        <v>258.6453063018264</v>
       </c>
       <c r="O2" t="n">
-        <v>337.6943058037295</v>
+        <v>337.6943058037298</v>
       </c>
       <c r="P2" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="Q2" t="n">
-        <v>346.7673010107291</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="R2" t="n">
-        <v>253.166342132848</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="S2" t="n">
-        <v>159.5653832549669</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="T2" t="n">
-        <v>65.96442437708579</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="U2" t="n">
-        <v>32.58015217906792</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="V2" t="n">
-        <v>32.58015217906792</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="W2" t="n">
-        <v>32.58015217906792</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="X2" t="n">
-        <v>32.58015217906792</v>
+        <v>288.2160725767718</v>
       </c>
       <c r="Y2" t="n">
-        <v>32.58015217906792</v>
+        <v>194.6151136988906</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>183.4578794006469</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="C3" t="n">
-        <v>183.4578794006469</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="D3" t="n">
-        <v>101.0141548210093</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="E3" t="n">
-        <v>101.0141548210093</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="F3" t="n">
-        <v>101.0141548210093</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="G3" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="H3" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="I3" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="J3" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="K3" t="n">
-        <v>28.29609765201167</v>
+        <v>28.29609765201173</v>
       </c>
       <c r="L3" t="n">
-        <v>102.6982772648968</v>
+        <v>102.6982772648969</v>
       </c>
       <c r="M3" t="n">
-        <v>194.436577061108</v>
+        <v>194.4365770611083</v>
       </c>
       <c r="N3" t="n">
-        <v>279.9930347572611</v>
+        <v>226.5580308522529</v>
       </c>
       <c r="O3" t="n">
-        <v>370.6597971564091</v>
+        <v>317.224793251401</v>
       </c>
       <c r="P3" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="Q3" t="n">
-        <v>370.6597971564091</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="R3" t="n">
-        <v>370.6597971564091</v>
+        <v>331.217566245845</v>
       </c>
       <c r="S3" t="n">
-        <v>370.6597971564091</v>
+        <v>331.217566245845</v>
       </c>
       <c r="T3" t="n">
-        <v>370.6597971564091</v>
+        <v>331.217566245845</v>
       </c>
       <c r="U3" t="n">
-        <v>370.6597971564091</v>
+        <v>288.2160725767718</v>
       </c>
       <c r="V3" t="n">
-        <v>370.6597971564091</v>
+        <v>288.2160725767718</v>
       </c>
       <c r="W3" t="n">
-        <v>277.058838278528</v>
+        <v>194.6151136988906</v>
       </c>
       <c r="X3" t="n">
-        <v>183.4578794006469</v>
+        <v>101.0141548210094</v>
       </c>
       <c r="Y3" t="n">
-        <v>183.4578794006469</v>
+        <v>7.41319594312819</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="C4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="D4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="E4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="F4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="G4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="H4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="I4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="J4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="K4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="L4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="M4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="N4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="O4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="P4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="R4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="S4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="T4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="U4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="V4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="W4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="X4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.413195943128183</v>
+        <v>7.41319594312819</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>293.1298389021427</v>
+        <v>253.1663421328487</v>
       </c>
       <c r="C5" t="n">
-        <v>293.1298389021427</v>
+        <v>159.5653832549674</v>
       </c>
       <c r="D5" t="n">
-        <v>293.1298389021427</v>
+        <v>101.0141548210095</v>
       </c>
       <c r="E5" t="n">
-        <v>293.1298389021427</v>
+        <v>101.0141548210095</v>
       </c>
       <c r="F5" t="n">
-        <v>293.1298389021427</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="G5" t="n">
-        <v>229.3062958974529</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="H5" t="n">
-        <v>130.2759449169993</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="I5" t="n">
-        <v>31.24559393654562</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="J5" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="K5" t="n">
-        <v>24.20558058509584</v>
+        <v>21.18357364821469</v>
       </c>
       <c r="L5" t="n">
-        <v>81.40631770818692</v>
+        <v>75.16870670940403</v>
       </c>
       <c r="M5" t="n">
-        <v>176.7225966038353</v>
+        <v>166.9070065056154</v>
       </c>
       <c r="N5" t="n">
-        <v>273.7822435997779</v>
+        <v>258.6453063018268</v>
       </c>
       <c r="O5" t="n">
-        <v>356.26449633036</v>
+        <v>337.6943058037302</v>
       </c>
       <c r="P5" t="n">
-        <v>392.1601898825963</v>
+        <v>370.6597971564099</v>
       </c>
       <c r="Q5" t="n">
-        <v>392.1601898825963</v>
+        <v>346.76730101073</v>
       </c>
       <c r="R5" t="n">
-        <v>392.1601898825963</v>
+        <v>346.76730101073</v>
       </c>
       <c r="S5" t="n">
-        <v>392.1601898825963</v>
+        <v>346.76730101073</v>
       </c>
       <c r="T5" t="n">
-        <v>392.1601898825963</v>
+        <v>346.76730101073</v>
       </c>
       <c r="U5" t="n">
-        <v>392.1601898825963</v>
+        <v>346.76730101073</v>
       </c>
       <c r="V5" t="n">
-        <v>392.1601898825963</v>
+        <v>346.76730101073</v>
       </c>
       <c r="W5" t="n">
-        <v>392.1601898825963</v>
+        <v>253.1663421328487</v>
       </c>
       <c r="X5" t="n">
-        <v>392.1601898825963</v>
+        <v>253.1663421328487</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.1601898825963</v>
+        <v>253.1663421328487</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>205.9264879772098</v>
+        <v>194.6151136988908</v>
       </c>
       <c r="C6" t="n">
-        <v>205.9264879772098</v>
+        <v>194.6151136988908</v>
       </c>
       <c r="D6" t="n">
-        <v>205.9264879772098</v>
+        <v>194.6151136988908</v>
       </c>
       <c r="E6" t="n">
-        <v>205.9264879772098</v>
+        <v>194.6151136988908</v>
       </c>
       <c r="F6" t="n">
-        <v>205.9264879772098</v>
+        <v>101.0141548210095</v>
       </c>
       <c r="G6" t="n">
-        <v>205.9264879772098</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="H6" t="n">
-        <v>106.8961369967562</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="I6" t="n">
-        <v>40.98143251587835</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="J6" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="K6" t="n">
-        <v>30.48662383378605</v>
+        <v>28.29609765201174</v>
       </c>
       <c r="L6" t="n">
-        <v>107.2560375991155</v>
+        <v>102.6982772648969</v>
       </c>
       <c r="M6" t="n">
-        <v>204.3156845950581</v>
+        <v>134.8197310560419</v>
       </c>
       <c r="N6" t="n">
-        <v>301.3753315910007</v>
+        <v>226.5580308522534</v>
       </c>
       <c r="O6" t="n">
-        <v>336.6432823208034</v>
+        <v>317.2247932514015</v>
       </c>
       <c r="P6" t="n">
-        <v>392.1601898825963</v>
+        <v>370.6597971564099</v>
       </c>
       <c r="Q6" t="n">
-        <v>389.6898976853363</v>
+        <v>370.6597971564099</v>
       </c>
       <c r="R6" t="n">
-        <v>304.9568389576634</v>
+        <v>370.6597971564099</v>
       </c>
       <c r="S6" t="n">
-        <v>304.9568389576634</v>
+        <v>370.6597971564099</v>
       </c>
       <c r="T6" t="n">
-        <v>304.9568389576634</v>
+        <v>288.2160725767721</v>
       </c>
       <c r="U6" t="n">
-        <v>304.9568389576634</v>
+        <v>288.2160725767721</v>
       </c>
       <c r="V6" t="n">
-        <v>205.9264879772098</v>
+        <v>194.6151136988908</v>
       </c>
       <c r="W6" t="n">
-        <v>205.9264879772098</v>
+        <v>194.6151136988908</v>
       </c>
       <c r="X6" t="n">
-        <v>205.9264879772098</v>
+        <v>194.6151136988908</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.9264879772098</v>
+        <v>194.6151136988908</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="C7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="D7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="E7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="F7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="G7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="H7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="I7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="J7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="K7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="L7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="M7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="N7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="O7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="P7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="R7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="S7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="T7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="U7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="V7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="W7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="X7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.6649153051432</v>
+        <v>390.3062731521916</v>
       </c>
       <c r="C8" t="n">
-        <v>156.6649153051432</v>
+        <v>292.5555544675387</v>
       </c>
       <c r="D8" t="n">
-        <v>21.83640931561506</v>
+        <v>292.5555544675387</v>
       </c>
       <c r="E8" t="n">
-        <v>21.83640931561506</v>
+        <v>151.8497279633358</v>
       </c>
       <c r="F8" t="n">
-        <v>21.83640931561506</v>
+        <v>151.8497279633358</v>
       </c>
       <c r="G8" t="n">
-        <v>21.83640931561506</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="H8" t="n">
-        <v>21.83640931561506</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="I8" t="n">
-        <v>21.83640931561506</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="J8" t="n">
-        <v>10.67841767437063</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="K8" t="n">
-        <v>45.02678530854854</v>
+        <v>48.54207107088055</v>
       </c>
       <c r="L8" t="n">
-        <v>124.5407345071166</v>
+        <v>131.8395693045623</v>
       </c>
       <c r="M8" t="n">
-        <v>244.6847611324235</v>
+        <v>256.1935232432854</v>
       </c>
       <c r="N8" t="n">
-        <v>371.3866520940735</v>
+        <v>387.173462543626</v>
       </c>
       <c r="O8" t="n">
-        <v>477.6923936390785</v>
+        <v>497.5188438236881</v>
       </c>
       <c r="P8" t="n">
-        <v>533.9208837185313</v>
+        <v>557.1950729566436</v>
       </c>
       <c r="Q8" t="n">
-        <v>527.8526332951789</v>
+        <v>553.7685003667414</v>
       </c>
       <c r="R8" t="n">
-        <v>437.1793662089322</v>
+        <v>531.0120996563945</v>
       </c>
       <c r="S8" t="n">
-        <v>302.350860219404</v>
+        <v>531.0120996563945</v>
       </c>
       <c r="T8" t="n">
-        <v>291.4934212946713</v>
+        <v>531.0120996563945</v>
       </c>
       <c r="U8" t="n">
-        <v>291.4934212946713</v>
+        <v>531.0120996563945</v>
       </c>
       <c r="V8" t="n">
-        <v>156.6649153051432</v>
+        <v>531.0120996563945</v>
       </c>
       <c r="W8" t="n">
-        <v>156.6649153051432</v>
+        <v>531.0120996563945</v>
       </c>
       <c r="X8" t="n">
-        <v>156.6649153051432</v>
+        <v>390.3062731521916</v>
       </c>
       <c r="Y8" t="n">
-        <v>156.6649153051432</v>
+        <v>390.3062731521916</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.67841767437063</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="C9" t="n">
-        <v>10.67841767437063</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="D9" t="n">
-        <v>10.67841767437063</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="E9" t="n">
-        <v>10.67841767437063</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="F9" t="n">
-        <v>10.67841767437063</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="G9" t="n">
-        <v>10.67841767437063</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="H9" t="n">
-        <v>10.67841767437063</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="I9" t="n">
-        <v>10.67841767437063</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="J9" t="n">
-        <v>10.67841767437063</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="K9" t="n">
-        <v>45.53814856299016</v>
+        <v>48.07509615055327</v>
       </c>
       <c r="L9" t="n">
-        <v>138.7338998558827</v>
+        <v>144.0561861608225</v>
       </c>
       <c r="M9" t="n">
-        <v>266.8458140273498</v>
+        <v>232.5636749047634</v>
       </c>
       <c r="N9" t="n">
-        <v>352.6970205205354</v>
+        <v>370.4694554615327</v>
       </c>
       <c r="O9" t="n">
-        <v>463.9575589609997</v>
+        <v>484.7821354917663</v>
       </c>
       <c r="P9" t="n">
-        <v>533.9208837185313</v>
+        <v>557.1950729566436</v>
       </c>
       <c r="Q9" t="n">
-        <v>533.9208837185313</v>
+        <v>555.6512861969129</v>
       </c>
       <c r="R9" t="n">
-        <v>533.9208837185313</v>
+        <v>555.6512861969129</v>
       </c>
       <c r="S9" t="n">
-        <v>399.0923777290031</v>
+        <v>555.6512861969129</v>
       </c>
       <c r="T9" t="n">
-        <v>264.263871739475</v>
+        <v>555.6512861969129</v>
       </c>
       <c r="U9" t="n">
-        <v>129.4353657499469</v>
+        <v>433.2613809717417</v>
       </c>
       <c r="V9" t="n">
-        <v>10.67841767437063</v>
+        <v>292.5555544675387</v>
       </c>
       <c r="W9" t="n">
-        <v>10.67841767437063</v>
+        <v>151.8497279633358</v>
       </c>
       <c r="X9" t="n">
-        <v>10.67841767437063</v>
+        <v>151.8497279633358</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.67841767437063</v>
+        <v>11.14390145913287</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.27741472296089</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="C10" t="n">
-        <v>22.27741472296089</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="D10" t="n">
-        <v>22.27741472296089</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="E10" t="n">
-        <v>22.27741472296089</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="F10" t="n">
-        <v>22.27741472296089</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="G10" t="n">
-        <v>22.27741472296089</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="H10" t="n">
-        <v>22.27741472296089</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="I10" t="n">
-        <v>22.27741472296089</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="J10" t="n">
-        <v>22.27741472296089</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="K10" t="n">
-        <v>11.99936591069905</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="L10" t="n">
-        <v>10.67841767437063</v>
+        <v>11.44816833963115</v>
       </c>
       <c r="M10" t="n">
-        <v>12.57166180257171</v>
+        <v>15.02725811793049</v>
       </c>
       <c r="N10" t="n">
-        <v>22.27741472296089</v>
+        <v>26.37877104690888</v>
       </c>
       <c r="O10" t="n">
-        <v>22.27741472296089</v>
+        <v>26.37877104690888</v>
       </c>
       <c r="P10" t="n">
-        <v>22.27741472296089</v>
+        <v>26.37877104690888</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.27741472296089</v>
+        <v>26.37877104690888</v>
       </c>
       <c r="R10" t="n">
-        <v>22.27741472296089</v>
+        <v>26.37877104690888</v>
       </c>
       <c r="S10" t="n">
-        <v>22.27741472296089</v>
+        <v>26.37877104690888</v>
       </c>
       <c r="T10" t="n">
-        <v>22.27741472296089</v>
+        <v>26.37877104690888</v>
       </c>
       <c r="U10" t="n">
-        <v>22.27741472296089</v>
+        <v>26.37877104690888</v>
       </c>
       <c r="V10" t="n">
-        <v>22.27741472296089</v>
+        <v>26.37877104690888</v>
       </c>
       <c r="W10" t="n">
-        <v>22.27741472296089</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="X10" t="n">
-        <v>22.27741472296089</v>
+        <v>11.14390145913287</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.27741472296089</v>
+        <v>11.14390145913287</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>815.5113999780201</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="C11" t="n">
-        <v>815.5113999780201</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="D11" t="n">
-        <v>815.5113999780201</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E11" t="n">
-        <v>429.7231473797759</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F11" t="n">
-        <v>429.7231473797759</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G11" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H11" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I11" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J11" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K11" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L11" t="n">
-        <v>669.5878927711877</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N11" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O11" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q11" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R11" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S11" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T11" t="n">
-        <v>1826.151173794703</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U11" t="n">
-        <v>1572.544009457212</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V11" t="n">
-        <v>1241.481122113642</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W11" t="n">
-        <v>888.7124668435274</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X11" t="n">
-        <v>815.5113999780201</v>
+        <v>1260.525478600105</v>
       </c>
       <c r="Y11" t="n">
-        <v>815.5113999780201</v>
+        <v>870.3861466242934</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5261380428188</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0731087616919</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1386991004406</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9012440949851</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3666861218701</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G12" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H12" t="n">
-        <v>80.03532540581921</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I12" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J12" t="n">
-        <v>89.55356510562342</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K12" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L12" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M12" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N12" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O12" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P12" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q12" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R12" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S12" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T12" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U12" t="n">
-        <v>1766.227047333489</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V12" t="n">
-        <v>1766.227047333489</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.353274033374</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.501773827841</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.741475062887</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="D13" t="n">
-        <v>497.4664265514534</v>
+        <v>370.1727076282633</v>
       </c>
       <c r="E13" t="n">
-        <v>497.4664265514534</v>
+        <v>222.2596140458702</v>
       </c>
       <c r="F13" t="n">
-        <v>490.1366584153656</v>
+        <v>75.36966654795984</v>
       </c>
       <c r="G13" t="n">
-        <v>322.0038290103839</v>
+        <v>75.36966654795984</v>
       </c>
       <c r="H13" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I13" t="n">
-        <v>61.70688273934481</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J13" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K13" t="n">
-        <v>92.71685897981547</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L13" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M13" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N13" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O13" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P13" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2168.459826904656</v>
+        <v>1572.416709980092</v>
       </c>
       <c r="C14" t="n">
-        <v>1799.497309964245</v>
+        <v>1203.454193039681</v>
       </c>
       <c r="D14" t="n">
-        <v>1441.231611357494</v>
+        <v>845.1884944329302</v>
       </c>
       <c r="E14" t="n">
-        <v>1055.44335875925</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="F14" t="n">
-        <v>644.4574539696425</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G14" t="n">
-        <v>228.4264086730498</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H14" t="n">
-        <v>122.3223344947425</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I14" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J14" t="n">
-        <v>152.5078184301905</v>
+        <v>152.5078184301902</v>
       </c>
       <c r="K14" t="n">
-        <v>366.8168396232726</v>
+        <v>366.8168396232723</v>
       </c>
       <c r="L14" t="n">
-        <v>669.587892771188</v>
+        <v>669.5878927711875</v>
       </c>
       <c r="M14" t="n">
         <v>1038.148464578731</v>
       </c>
       <c r="N14" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O14" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q14" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="R14" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="S14" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="T14" t="n">
-        <v>2168.459826904656</v>
+        <v>1903.479597323663</v>
       </c>
       <c r="U14" t="n">
-        <v>2168.459826904656</v>
+        <v>1903.479597323663</v>
       </c>
       <c r="V14" t="n">
-        <v>2168.459826904656</v>
+        <v>1572.416709980092</v>
       </c>
       <c r="W14" t="n">
-        <v>2168.459826904656</v>
+        <v>1572.416709980092</v>
       </c>
       <c r="X14" t="n">
-        <v>2168.459826904656</v>
+        <v>1572.416709980092</v>
       </c>
       <c r="Y14" t="n">
-        <v>2168.459826904656</v>
+        <v>1572.416709980092</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5261380428188</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0731087616919</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1386991004406</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E15" t="n">
-        <v>458.901244094985</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F15" t="n">
-        <v>312.36668612187</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="G15" t="n">
-        <v>175.490692336986</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H15" t="n">
-        <v>80.03532540581918</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I15" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J15" t="n">
-        <v>89.55356510562341</v>
+        <v>89.55356510562335</v>
       </c>
       <c r="K15" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L15" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M15" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N15" t="n">
         <v>1166.885386873582</v>
@@ -5384,25 +5384,25 @@
         <v>1766.227047333489</v>
       </c>
       <c r="S15" t="n">
-        <v>1766.227047333489</v>
+        <v>1627.262386835207</v>
       </c>
       <c r="T15" t="n">
-        <v>1766.227047333489</v>
+        <v>1627.262386835207</v>
       </c>
       <c r="U15" t="n">
-        <v>1766.227047333489</v>
+        <v>1399.160796968471</v>
       </c>
       <c r="V15" t="n">
-        <v>1766.227047333489</v>
+        <v>1164.008688736728</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.353274033374</v>
+        <v>909.7713320085268</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.501773827841</v>
+        <v>874.0512549629368</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.741475062887</v>
+        <v>666.290956197983</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="C16" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="D16" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="E16" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="F16" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="G16" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H16" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I16" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J16" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="K16" t="n">
-        <v>92.71685897981547</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L16" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M16" t="n">
         <v>287.1411594927338</v>
       </c>
       <c r="N16" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O16" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P16" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q16" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R16" t="n">
-        <v>388.3019303235357</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S16" t="n">
-        <v>189.1224447077621</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T16" t="n">
-        <v>43.36919653809313</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U16" t="n">
-        <v>43.36919653809313</v>
+        <v>332.7863665750537</v>
       </c>
       <c r="V16" t="n">
-        <v>43.36919653809313</v>
+        <v>332.7863665750537</v>
       </c>
       <c r="W16" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="X16" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="Y16" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1484.628284290972</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="C17" t="n">
-        <v>1484.628284290972</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="D17" t="n">
-        <v>1484.628284290972</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="E17" t="n">
-        <v>1098.840031692727</v>
+        <v>454.3551013277007</v>
       </c>
       <c r="F17" t="n">
-        <v>687.8541269031198</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G17" t="n">
-        <v>271.823081606527</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H17" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I17" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J17" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K17" t="n">
-        <v>366.8168396232726</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L17" t="n">
-        <v>669.5878927711879</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M17" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N17" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O17" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P17" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q17" t="n">
         <v>2168.459826904656</v>
@@ -5545,22 +5545,22 @@
         <v>2168.459826904656</v>
       </c>
       <c r="T17" t="n">
-        <v>2168.459826904656</v>
+        <v>1958.285829056571</v>
       </c>
       <c r="U17" t="n">
-        <v>2168.459826904656</v>
+        <v>1704.67866471908</v>
       </c>
       <c r="V17" t="n">
-        <v>1837.396939561086</v>
+        <v>1373.615777375509</v>
       </c>
       <c r="W17" t="n">
-        <v>1484.628284290972</v>
+        <v>1373.615777375509</v>
       </c>
       <c r="X17" t="n">
-        <v>1484.628284290972</v>
+        <v>1000.15001911443</v>
       </c>
       <c r="Y17" t="n">
-        <v>1484.628284290972</v>
+        <v>840.1433539259449</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>904.8600091750928</v>
+        <v>366.7566354804714</v>
       </c>
       <c r="C18" t="n">
-        <v>730.4069798939659</v>
+        <v>192.3036061993444</v>
       </c>
       <c r="D18" t="n">
-        <v>581.4725702327146</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="E18" t="n">
-        <v>422.235115227259</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F18" t="n">
-        <v>275.700557254144</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G18" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H18" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I18" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J18" t="n">
-        <v>89.55356510562338</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K18" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L18" t="n">
         <v>504.1959674104402</v>
       </c>
       <c r="M18" t="n">
-        <v>824.1028628789498</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N18" t="n">
         <v>1166.885386873582</v>
@@ -5624,22 +5624,22 @@
         <v>1627.262386835207</v>
       </c>
       <c r="T18" t="n">
-        <v>1627.262386835207</v>
+        <v>1432.552065309183</v>
       </c>
       <c r="U18" t="n">
-        <v>1627.262386835207</v>
+        <v>1204.450475442447</v>
       </c>
       <c r="V18" t="n">
-        <v>1627.262386835207</v>
+        <v>969.2983672107043</v>
       </c>
       <c r="W18" t="n">
-        <v>1488.687145165648</v>
+        <v>715.0610104825028</v>
       </c>
       <c r="X18" t="n">
-        <v>1280.835644960115</v>
+        <v>574.5169342454253</v>
       </c>
       <c r="Y18" t="n">
-        <v>1073.075346195161</v>
+        <v>366.7566354804714</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="C19" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="D19" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="E19" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F19" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G19" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H19" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I19" t="n">
-        <v>61.70688273934481</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J19" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K19" t="n">
-        <v>92.71685897981544</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L19" t="n">
         <v>185.7706748018945</v>
@@ -5694,31 +5694,31 @@
         <v>520.2893470406002</v>
       </c>
       <c r="Q19" t="n">
-        <v>497.4664265514533</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R19" t="n">
-        <v>388.3019303235355</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S19" t="n">
-        <v>189.122444707762</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T19" t="n">
-        <v>171.9636155141766</v>
+        <v>332.7863665750537</v>
       </c>
       <c r="U19" t="n">
-        <v>171.9636155141766</v>
+        <v>332.7863665750537</v>
       </c>
       <c r="V19" t="n">
-        <v>171.9636155141766</v>
+        <v>332.7863665750537</v>
       </c>
       <c r="W19" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="X19" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809311</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.3390791561985</v>
+        <v>1049.412001754769</v>
       </c>
       <c r="C20" t="n">
-        <v>422.3390791561985</v>
+        <v>1049.412001754769</v>
       </c>
       <c r="D20" t="n">
-        <v>422.3390791561985</v>
+        <v>691.1463031480187</v>
       </c>
       <c r="E20" t="n">
-        <v>422.3390791561985</v>
+        <v>691.1463031480187</v>
       </c>
       <c r="F20" t="n">
-        <v>422.3390791561985</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G20" t="n">
         <v>43.36919653809313</v>
@@ -5752,19 +5752,19 @@
         <v>43.36919653809313</v>
       </c>
       <c r="J20" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K20" t="n">
-        <v>366.8168396232727</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L20" t="n">
-        <v>669.5878927711879</v>
+        <v>669.5878927711876</v>
       </c>
       <c r="M20" t="n">
         <v>1038.148464578731</v>
       </c>
       <c r="N20" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O20" t="n">
         <v>1761.960612545599</v>
@@ -5785,19 +5785,19 @@
         <v>1826.151173794703</v>
       </c>
       <c r="U20" t="n">
-        <v>1572.544009457212</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="V20" t="n">
-        <v>1572.544009457212</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="W20" t="n">
-        <v>1572.544009457212</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="X20" t="n">
-        <v>1199.078251196132</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="Y20" t="n">
-        <v>808.9389192203203</v>
+        <v>1436.011841818891</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>175.490692336986</v>
+        <v>523.5942387977907</v>
       </c>
       <c r="C21" t="n">
-        <v>175.490692336986</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="D21" t="n">
-        <v>175.490692336986</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E21" t="n">
-        <v>175.490692336986</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F21" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G21" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H21" t="n">
-        <v>80.03532540581919</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I21" t="n">
         <v>43.36919653809313</v>
@@ -5855,28 +5855,28 @@
         <v>1766.227047333489</v>
       </c>
       <c r="R21" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S21" t="n">
-        <v>1595.273638474385</v>
+        <v>1627.262386835207</v>
       </c>
       <c r="T21" t="n">
-        <v>1400.563316948361</v>
+        <v>1627.262386835207</v>
       </c>
       <c r="U21" t="n">
-        <v>1172.461727081625</v>
+        <v>1428.595502728222</v>
       </c>
       <c r="V21" t="n">
-        <v>937.3096188498821</v>
+        <v>1193.443394496479</v>
       </c>
       <c r="W21" t="n">
-        <v>683.0722621216805</v>
+        <v>939.2060377682774</v>
       </c>
       <c r="X21" t="n">
-        <v>475.2207619161477</v>
+        <v>731.3545375627446</v>
       </c>
       <c r="Y21" t="n">
-        <v>267.4604631511938</v>
+        <v>523.5942387977907</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.89291058969368</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="C22" t="n">
-        <v>75.89291058969368</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="D22" t="n">
-        <v>75.89291058969368</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="E22" t="n">
         <v>43.36919653809313</v>
@@ -5937,25 +5937,25 @@
         <v>520.2893470406002</v>
       </c>
       <c r="S22" t="n">
-        <v>520.2893470406002</v>
+        <v>321.1098614248266</v>
       </c>
       <c r="T22" t="n">
-        <v>296.6854897332238</v>
+        <v>225.0176613683328</v>
       </c>
       <c r="U22" t="n">
-        <v>296.6854897332238</v>
+        <v>225.0176613683328</v>
       </c>
       <c r="V22" t="n">
-        <v>296.6854897332238</v>
+        <v>225.0176613683328</v>
       </c>
       <c r="W22" t="n">
-        <v>296.6854897332238</v>
+        <v>225.0176613683328</v>
       </c>
       <c r="X22" t="n">
-        <v>296.6854897332238</v>
+        <v>225.0176613683328</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.89291058969368</v>
+        <v>225.0176613683328</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2158.017852261501</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C23" t="n">
-        <v>1934.208022973022</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6001,40 +6001,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V23" t="n">
-        <v>2884.252265792695</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W23" t="n">
-        <v>2531.48361052258</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X23" t="n">
-        <v>2158.017852261501</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y23" t="n">
-        <v>2158.017852261501</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F24" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3177.279673892551</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C25" t="n">
-        <v>3177.279673892551</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D25" t="n">
-        <v>3177.279673892551</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E25" t="n">
-        <v>3029.366580310158</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F25" t="n">
-        <v>2882.476632812247</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>2714.773796186966</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S25" t="n">
-        <v>3177.279673892551</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T25" t="n">
-        <v>3177.279673892551</v>
+        <v>734.9162402279468</v>
       </c>
       <c r="U25" t="n">
-        <v>3177.279673892551</v>
+        <v>734.9162402279468</v>
       </c>
       <c r="V25" t="n">
-        <v>3177.279673892551</v>
+        <v>734.9162402279468</v>
       </c>
       <c r="W25" t="n">
-        <v>3177.279673892551</v>
+        <v>734.9162402279468</v>
       </c>
       <c r="X25" t="n">
-        <v>3177.279673892551</v>
+        <v>734.9162402279468</v>
       </c>
       <c r="Y25" t="n">
-        <v>3177.279673892551</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1208.812782134349</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C26" t="n">
-        <v>839.8502651939375</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="D26" t="n">
-        <v>481.5845665871869</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="E26" t="n">
-        <v>481.5845665871869</v>
+        <v>1032.872711818408</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>621.8868070288006</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218339</v>
+        <v>206.8143568737971</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794323</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450752</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919558</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943746</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G27" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I27" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218339</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218339</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218339</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596504</v>
@@ -6417,19 +6417,19 @@
         <v>699.1203903877106</v>
       </c>
       <c r="U28" t="n">
-        <v>410.0175235133541</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V28" t="n">
-        <v>155.3330353074673</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="W28" t="n">
-        <v>66.51211643218339</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="X28" t="n">
-        <v>66.51211643218339</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.51211643218339</v>
+        <v>697.9541770656748</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1285.591601078693</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C29" t="n">
-        <v>1285.591601078693</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D29" t="n">
-        <v>1285.591601078693</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E29" t="n">
-        <v>899.8033484804491</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>488.8174436908416</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>73.74499353583803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>73.74499353583803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2788.565186649821</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2435.796531379707</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X29" t="n">
-        <v>2062.330773118627</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1672.191441142815</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6566,28 +6566,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>417.6040489720648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C31" t="n">
-        <v>417.6040489720648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D31" t="n">
-        <v>382.1280466398575</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E31" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596504</v>
@@ -6645,28 +6645,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R31" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S31" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T31" t="n">
-        <v>417.6040489720648</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U31" t="n">
-        <v>417.6040489720648</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V31" t="n">
-        <v>417.6040489720648</v>
+        <v>444.4359021818237</v>
       </c>
       <c r="W31" t="n">
-        <v>417.6040489720648</v>
+        <v>155.0187321448631</v>
       </c>
       <c r="X31" t="n">
-        <v>417.6040489720648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y31" t="n">
-        <v>417.6040489720648</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1976.204921733553</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>790.659319924054</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>404.8710673258097</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>404.8710673258097</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3126.409852034566</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3126.409852034566</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V32" t="n">
-        <v>3126.409852034566</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W32" t="n">
-        <v>3126.409852034566</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X32" t="n">
-        <v>2752.944093773487</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y32" t="n">
-        <v>2362.804761797675</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G33" t="n">
         <v>176.021302392778</v>
@@ -6776,49 +6776,49 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U33" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>541.953681701356</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C34" t="n">
-        <v>541.953681701356</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D34" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R34" t="n">
-        <v>831.0565485757124</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S34" t="n">
-        <v>831.0565485757124</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T34" t="n">
-        <v>831.0565485757124</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U34" t="n">
-        <v>541.953681701356</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V34" t="n">
-        <v>541.953681701356</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="W34" t="n">
-        <v>541.953681701356</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="X34" t="n">
-        <v>541.953681701356</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y34" t="n">
-        <v>541.953681701356</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2047.583838282732</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C35" t="n">
-        <v>1678.62132134232</v>
+        <v>552.807938939213</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>194.5422403324625</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>194.5422403324625</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>194.5422403324625</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>194.5422403324625</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218339</v>
@@ -6973,16 +6973,16 @@
         <v>2755.806928794323</v>
       </c>
       <c r="V35" t="n">
-        <v>2434.183678346854</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W35" t="n">
-        <v>2434.183678346854</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X35" t="n">
-        <v>2434.183678346854</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y35" t="n">
-        <v>2434.183678346854</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2640.167115151075</v>
+        <v>739.2385409879448</v>
       </c>
       <c r="C37" t="n">
-        <v>2471.230932223169</v>
+        <v>570.3023580600379</v>
       </c>
       <c r="D37" t="n">
-        <v>2471.230932223169</v>
+        <v>420.1857186477022</v>
       </c>
       <c r="E37" t="n">
-        <v>2471.230932223169</v>
+        <v>272.2726250653091</v>
       </c>
       <c r="F37" t="n">
-        <v>2471.230932223169</v>
+        <v>125.3826775673987</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W37" t="n">
-        <v>3036.188651572209</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X37" t="n">
-        <v>2808.199100674192</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y37" t="n">
-        <v>2640.167115151075</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1232.248790760447</v>
+        <v>2102.480899540949</v>
       </c>
       <c r="C38" t="n">
-        <v>863.2862738200351</v>
+        <v>1733.518382600538</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200351</v>
+        <v>1375.252683993787</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>989.464431395543</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218342</v>
+        <v>578.4785266059355</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>163.4060764509319</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7177,7 +7177,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3319.815740401309</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3066.285263675145</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>2735.222376331575</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W38" t="n">
-        <v>2382.45372106146</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X38" t="n">
-        <v>2008.98796280038</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y38" t="n">
-        <v>1618.848630824569</v>
+        <v>2489.080739605071</v>
       </c>
     </row>
     <row r="39">
@@ -7359,19 +7359,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S40" t="n">
-        <v>832.0660869429007</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T40" t="n">
-        <v>610.2994715124267</v>
+        <v>838.2890224104441</v>
       </c>
       <c r="U40" t="n">
-        <v>321.1966046380703</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V40" t="n">
-        <v>66.51211643218342</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W40" t="n">
-        <v>66.51211643218342</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X40" t="n">
         <v>66.51211643218342</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1091.323932370578</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C41" t="n">
-        <v>722.3614154301667</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>364.0957168234162</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>364.0957168234162</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520486</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>2925.360405285277</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V41" t="n">
-        <v>2594.297517941706</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W41" t="n">
-        <v>2241.528862671592</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="X41" t="n">
-        <v>1868.063104410512</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y41" t="n">
-        <v>1477.9237724347</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927764</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228006</v>
@@ -7514,28 +7514,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>739.2385409879445</v>
+        <v>517.4719255574705</v>
       </c>
       <c r="C43" t="n">
-        <v>629.570363233848</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>479.4537238215122</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E43" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F43" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>78.33486996962279</v>
@@ -7599,22 +7599,22 @@
         <v>920.8870058181842</v>
       </c>
       <c r="T43" t="n">
-        <v>920.8870058181842</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U43" t="n">
-        <v>920.8870058181842</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="V43" t="n">
-        <v>920.8870058181842</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="W43" t="n">
-        <v>920.8870058181842</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="X43" t="n">
-        <v>920.8870058181842</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="Y43" t="n">
-        <v>920.8870058181842</v>
+        <v>699.1203903877102</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1278.358723975039</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C44" t="n">
-        <v>1278.358723975039</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>950.104597336996</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>564.3163447387517</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912098</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810551</v>
+        <v>589.210621081056</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3318.372944505515</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3112.395196889737</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U44" t="n">
-        <v>3112.395196889737</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V44" t="n">
-        <v>2781.332309546166</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W44" t="n">
-        <v>2428.563654276052</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X44" t="n">
-        <v>2055.097896014972</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y44" t="n">
-        <v>1664.958564039161</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>382.3382468580006</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="C46" t="n">
-        <v>213.4020639300937</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D46" t="n">
-        <v>213.4020639300937</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E46" t="n">
         <v>213.4020639300937</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
         <v>78.33486996962279</v>
@@ -7836,22 +7836,22 @@
         <v>920.8870058181842</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181842</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181842</v>
+        <v>410.0175235133538</v>
       </c>
       <c r="V46" t="n">
-        <v>920.8870058181842</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="W46" t="n">
-        <v>920.8870058181842</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="X46" t="n">
-        <v>784.7792908317705</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.9867116882403</v>
+        <v>361.3151575124868</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>24.91528667358028</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>33.14412614092822</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>33.84730027516767</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>27.74912497521849</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>290.0688923743782</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>272.6079424819052</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>23.65357118422315</v>
       </c>
       <c r="R2" t="n">
-        <v>7.366133540830774</v>
+        <v>34.31466295695057</v>
       </c>
       <c r="S2" t="n">
-        <v>74.43607637216448</v>
+        <v>167.1010256612667</v>
       </c>
       <c r="T2" t="n">
-        <v>122.378212846325</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U2" t="n">
-        <v>218.1480583845581</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>288.1118133446277</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>293.5729893669512</v>
       </c>
     </row>
     <row r="3">
@@ -22631,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>65.82577823079751</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>43.69431484884203</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H3" t="n">
         <v>102.729632124056</v>
       </c>
       <c r="I3" t="n">
-        <v>65.63472101604999</v>
+        <v>55.50897386746506</v>
       </c>
       <c r="J3" t="n">
-        <v>33.84730027516771</v>
+        <v>33.84730027516767</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,10 +22670,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.34273879062268</v>
+        <v>14.34273879062263</v>
       </c>
       <c r="R3" t="n">
-        <v>84.5694784127797</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>153.4011028494393</v>
@@ -22682,19 +22682,19 @@
         <v>196.197498299121</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8766285924705</v>
+        <v>183.305149860088</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>159.0300338718173</v>
+        <v>159.0300338718172</v>
       </c>
       <c r="X3" t="n">
-        <v>113.1080359143752</v>
+        <v>113.1080359143751</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>113.017746488202</v>
       </c>
     </row>
     <row r="4">
@@ -22728,28 +22728,28 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J4" t="n">
-        <v>68.65627904547947</v>
+        <v>68.65627904547945</v>
       </c>
       <c r="K4" t="n">
-        <v>33.14412614092826</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.20519387026837</v>
+        <v>12.20519387026833</v>
       </c>
       <c r="M4" t="n">
-        <v>9.577470677924651</v>
+        <v>9.577470677924595</v>
       </c>
       <c r="N4" t="n">
-        <v>1.412844977410188</v>
+        <v>1.412844977410131</v>
       </c>
       <c r="O4" t="n">
-        <v>21.82326264618298</v>
+        <v>21.82326264618294</v>
       </c>
       <c r="P4" t="n">
-        <v>37.92808757638605</v>
+        <v>37.92808757638601</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.40871249605684</v>
+        <v>82.40871249605682</v>
       </c>
       <c r="R4" t="n">
         <v>140.1909870721275</v>
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>284.6937941928315</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>272.6079424819051</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>296.7173254710647</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>314.211096452609</v>
       </c>
       <c r="G5" t="n">
-        <v>350.2572842736731</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H5" t="n">
-        <v>222.3845378348077</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I5" t="n">
-        <v>40.72257627971624</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>24.91528667358028</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>21.43088449674616</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>98.73816257081133</v>
+        <v>34.31466295695057</v>
       </c>
       <c r="S5" t="n">
-        <v>166.6320002036067</v>
+        <v>167.1010256612667</v>
       </c>
       <c r="T5" t="n">
-        <v>214.9530619076311</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U5" t="n">
-        <v>251.196841254491</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283105</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22874,16 +22874,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>52.4042631042814</v>
       </c>
       <c r="G6" t="n">
-        <v>136.3482514887423</v>
+        <v>43.69431484884183</v>
       </c>
       <c r="H6" t="n">
-        <v>4.583225646640244</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>55.50897386746506</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22907,22 +22907,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.49139450491925</v>
+        <v>14.34273879062263</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>39.04780860145886</v>
       </c>
       <c r="S6" t="n">
-        <v>153.1965477206216</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T6" t="n">
-        <v>196.1531095946621</v>
+        <v>114.5782109652795</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8759040760756</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V6" t="n">
-        <v>134.7605396787762</v>
+        <v>140.1356378603228</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22956,49 +22956,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.1565820501254</v>
+        <v>167.1658146852775</v>
       </c>
       <c r="H7" t="n">
-        <v>154.8086218933483</v>
+        <v>154.8907084131551</v>
       </c>
       <c r="I7" t="n">
-        <v>130.3578722366511</v>
+        <v>130.6355227555885</v>
       </c>
       <c r="J7" t="n">
-        <v>68.00353174022675</v>
+        <v>35.02003772275611</v>
       </c>
       <c r="K7" t="n">
-        <v>32.07146180234916</v>
+        <v>33.14412614092822</v>
       </c>
       <c r="L7" t="n">
-        <v>10.83255282229321</v>
+        <v>12.20519387026833</v>
       </c>
       <c r="M7" t="n">
-        <v>8.13021315131121</v>
+        <v>9.577470677924595</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.412844977410131</v>
       </c>
       <c r="O7" t="n">
-        <v>20.51827163395858</v>
+        <v>21.82326264618294</v>
       </c>
       <c r="P7" t="n">
-        <v>36.81144232126425</v>
+        <v>37.92808757638601</v>
       </c>
       <c r="Q7" t="n">
-        <v>81.63560520163962</v>
+        <v>17.06575411830536</v>
       </c>
       <c r="R7" t="n">
-        <v>139.7758542224708</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S7" t="n">
-        <v>209.4753285817443</v>
+        <v>209.6362282325312</v>
       </c>
       <c r="T7" t="n">
-        <v>224.3804372926753</v>
+        <v>224.4198858246887</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2735167760363</v>
+        <v>286.2740203743174</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23023,28 +23023,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>268.4996802732012</v>
       </c>
       <c r="D8" t="n">
-        <v>221.2028206910501</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>242.6316018331009</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.2997684840524</v>
+        <v>273.9767823420533</v>
       </c>
       <c r="H8" t="n">
-        <v>318.9618955261916</v>
+        <v>318.7138739287502</v>
       </c>
       <c r="I8" t="n">
-        <v>133.2564259995906</v>
+        <v>132.3227653004219</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>8.990947493820585</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>29.89719186081578</v>
+        <v>162.8255473295237</v>
       </c>
       <c r="T8" t="n">
-        <v>203.5789880950815</v>
+        <v>214.2218387608928</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1854153853499</v>
+        <v>251.1834779531228</v>
       </c>
       <c r="V8" t="n">
-        <v>194.2720375405021</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>230.4323324393081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2718342519101</v>
+        <v>136.2588765315378</v>
       </c>
       <c r="H9" t="n">
-        <v>101.8852434878836</v>
+        <v>101.7600991884982</v>
       </c>
       <c r="I9" t="n">
-        <v>62.62452537846909</v>
+        <v>52.05264619074912</v>
       </c>
       <c r="J9" t="n">
-        <v>25.58709336699825</v>
+        <v>24.36287295234753</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,31 +23144,31 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.182390531239918</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>79.14115619041087</v>
+        <v>32.81497107386767</v>
       </c>
       <c r="S9" t="n">
-        <v>18.29691013316256</v>
+        <v>151.53644709009</v>
       </c>
       <c r="T9" t="n">
-        <v>62.36487357446433</v>
+        <v>195.7928657978596</v>
       </c>
       <c r="U9" t="n">
-        <v>92.39065569665118</v>
+        <v>104.704017971761</v>
       </c>
       <c r="V9" t="n">
-        <v>115.2312085546048</v>
+        <v>93.50181891026438</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>112.3962149217587</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>66.38392753814347</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0925164057866</v>
+        <v>167.0816530883045</v>
       </c>
       <c r="H10" t="n">
-        <v>154.2390200736819</v>
+        <v>154.1424353055226</v>
       </c>
       <c r="I10" t="n">
-        <v>128.4312435869</v>
+        <v>128.104554002983</v>
       </c>
       <c r="J10" t="n">
-        <v>63.4740906854764</v>
+        <v>29.06981281676696</v>
       </c>
       <c r="K10" t="n">
-        <v>14.45293043594306</v>
+        <v>23.36607878352288</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,31 +23217,31 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>11.46288401414907</v>
+        <v>9.927403466766776</v>
       </c>
       <c r="P10" t="n">
-        <v>29.06299384596547</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.27098111069124</v>
+        <v>10.01836802995945</v>
       </c>
       <c r="R10" t="n">
-        <v>136.8952298870207</v>
+        <v>136.4067756300518</v>
       </c>
       <c r="S10" t="n">
-        <v>208.3588391254043</v>
+        <v>208.1695211289204</v>
       </c>
       <c r="T10" t="n">
-        <v>224.1067022668642</v>
+        <v>224.060286273986</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2700222863451</v>
+        <v>286.2694297417552</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>271.4404774446928</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>297.2620444816168</v>
+        <v>147.8693230445148</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>31.66886087721421</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>137.5750138932992</v>
@@ -23393,13 +23393,13 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>205.5435940233621</v>
       </c>
       <c r="W12" t="n">
-        <v>13.22994759380524</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>138.1645775682043</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>116.8593460514771</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R13" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S13" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T13" t="n">
         <v>221.3678187343026</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2837713196588</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>208.0722578696038</v>
+        <v>76.55513929367189</v>
       </c>
       <c r="U14" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.17372043046388</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>31.66886087721421</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S15" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>13.22994759380524</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>170.4101089283434</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J16" t="n">
-        <v>18.15430933923915</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T16" t="n">
-        <v>77.07210304633028</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2350578157167</v>
+        <v>100.6071071548257</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H17" t="n">
-        <v>156.3210651155163</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T17" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>227.8313401194537</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23819,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I18" t="n">
-        <v>36.2994675790488</v>
+        <v>26.17372043046388</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,19 +23864,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>114.5054939080557</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>66.63434972877081</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23910,10 +23910,10 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T19" t="n">
-        <v>204.3805778326531</v>
+        <v>35.73986807341157</v>
       </c>
       <c r="U19" t="n">
         <v>286.2350578157167</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,16 +23974,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>177.447445041512</v>
       </c>
       <c r="G20" t="n">
-        <v>36.69055105170253</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>304.326804756183</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.48311054380164</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>135.5072338470352</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.17372043046388</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>29.14035870215298</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>114.2354857354846</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,10 +24177,10 @@
         <v>108.0728512656385</v>
       </c>
       <c r="S22" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>126.2365406783738</v>
       </c>
       <c r="U22" t="n">
         <v>286.2350578157167</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>143.7011607754138</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396202</v>
@@ -24265,7 +24265,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>97.95568926599836</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>131.8582917620359</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>35.43789134183382</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>284.1719029921773</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>155.7085463501229</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>250.9830921350126</v>
       </c>
       <c r="W28" t="n">
-        <v>198.59028865006</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>325.7750569628803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>34.41638144030788</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24776,7 +24776,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>113.4942307093272</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>138.0881058334842</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>75.94636426876338</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>115.9017220489381</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>135.8091423302602</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>57.79949846737793</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>167.8579417260441</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>9.34524052714039</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>52.23298768420955</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>198.6827439687594</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>198.1857897438373</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25599,10 +25599,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>101.8363156449109</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>137.7769457025062</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292601</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>167.8579417260452</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>24.86859442887771</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>58.67532512207228</v>
+        <v>161.2670937523064</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>366.5485151445883</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>102.0272134555588</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>203.9223009829697</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>90.96301755248757</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>342091.1537804437</v>
+        <v>360496.4719724138</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>346463.2215937443</v>
+        <v>362328.1130706494</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>375694.6678126387</v>
+        <v>399409.0605714243</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>645633.2065222079</v>
+        <v>648778.668722229</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>645633.2065222077</v>
+        <v>646395.2702526101</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>645633.2065222078</v>
+        <v>646395.2702526103</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>645633.2065222078</v>
+        <v>646395.2702526106</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822602.4434218737</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822602.4434218737</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822602.4434218735</v>
+        <v>822602.4434218736</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822602.4434218736</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>136836.4615121774</v>
+        <v>142021.0581859717</v>
       </c>
       <c r="C2" t="n">
-        <v>138585.2886374976</v>
+        <v>142537.0134249114</v>
       </c>
       <c r="D2" t="n">
-        <v>150277.8671250553</v>
+        <v>157530.9131969963</v>
       </c>
       <c r="E2" t="n">
-        <v>258253.282608883</v>
+        <v>259139.3282990296</v>
       </c>
       <c r="F2" t="n">
-        <v>258253.2826088829</v>
+        <v>258467.948448433</v>
       </c>
       <c r="G2" t="n">
-        <v>258253.282608883</v>
+        <v>258467.948448433</v>
       </c>
       <c r="H2" t="n">
-        <v>258253.282608883</v>
+        <v>258467.948448433</v>
       </c>
       <c r="I2" t="n">
+        <v>329040.977368749</v>
+      </c>
+      <c r="J2" t="n">
+        <v>329040.9773687492</v>
+      </c>
+      <c r="K2" t="n">
         <v>329040.9773687493</v>
       </c>
-      <c r="J2" t="n">
-        <v>329040.977368749</v>
-      </c>
-      <c r="K2" t="n">
-        <v>329040.977368749</v>
-      </c>
       <c r="L2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687493</v>
       </c>
       <c r="M2" t="n">
         <v>329040.9773687491</v>
@@ -26352,10 +26352,10 @@
         <v>329040.9773687492</v>
       </c>
       <c r="O2" t="n">
-        <v>329040.977368749</v>
+        <v>329040.9773687492</v>
       </c>
       <c r="P2" t="n">
-        <v>329040.977368749</v>
+        <v>329040.9773687492</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471995.0992489057</v>
+        <v>471995.0992489059</v>
       </c>
       <c r="C3" t="n">
-        <v>6398.742276107262</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>41434.86834133538</v>
+        <v>54455.93013055384</v>
       </c>
       <c r="E3" t="n">
-        <v>407596.708207094</v>
+        <v>401019.5549597769</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7.020503289822955e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>254625.8275892816</v>
+        <v>254625.8275892815</v>
       </c>
       <c r="J3" t="n">
-        <v>24245.22799179782</v>
+        <v>24245.22799179796</v>
       </c>
       <c r="K3" t="n">
-        <v>1383.378268788338</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8969.58894090771</v>
+        <v>11802.59987188931</v>
       </c>
       <c r="M3" t="n">
-        <v>101833.4106994387</v>
+        <v>100383.4054357148</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.949148327184957e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.14558386063678</v>
+        <v>5510.97209134469</v>
       </c>
       <c r="C4" t="n">
-        <v>71.04041257933821</v>
+        <v>6052.725092231289</v>
       </c>
       <c r="D4" t="n">
-        <v>97.14235876750571</v>
+        <v>5683.268305891966</v>
       </c>
       <c r="E4" t="n">
-        <v>384.3219252469142</v>
+        <v>1314.669899901205</v>
       </c>
       <c r="F4" t="n">
-        <v>384.3219252469142</v>
+        <v>609.7210567744146</v>
       </c>
       <c r="G4" t="n">
-        <v>384.3219252469141</v>
+        <v>609.7210567744146</v>
       </c>
       <c r="H4" t="n">
-        <v>384.3219252469141</v>
+        <v>609.7210567744146</v>
       </c>
       <c r="I4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061479</v>
       </c>
       <c r="J4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061485</v>
       </c>
       <c r="K4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061433</v>
       </c>
       <c r="L4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061479</v>
       </c>
       <c r="N4" t="n">
         <v>584.646989006123</v>
@@ -26459,7 +26459,7 @@
         <v>584.6469890061228</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.6469890061537</v>
       </c>
     </row>
     <row r="5">
@@ -26469,34 +26469,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49237.11966583622</v>
+        <v>49237.11966583624</v>
       </c>
       <c r="C5" t="n">
-        <v>49675.53980095835</v>
+        <v>49237.11966583625</v>
       </c>
       <c r="D5" t="n">
-        <v>52604.79774582532</v>
+        <v>53089.89305486033</v>
       </c>
       <c r="E5" t="n">
-        <v>51571.48185587232</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="F5" t="n">
-        <v>51571.48185587231</v>
+        <v>51571.48185587229</v>
       </c>
       <c r="G5" t="n">
-        <v>51571.48185587231</v>
+        <v>51571.48185587229</v>
       </c>
       <c r="H5" t="n">
         <v>51571.48185587231</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="J5" t="n">
-        <v>74306.34056139327</v>
-      </c>
       <c r="K5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
@@ -26508,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384462.9029864252</v>
+        <v>-398147.1241574236</v>
       </c>
       <c r="C6" t="n">
-        <v>82439.96614785268</v>
+        <v>73847.97509148234</v>
       </c>
       <c r="D6" t="n">
-        <v>56141.05867912711</v>
+        <v>31652.32311893289</v>
       </c>
       <c r="E6" t="n">
-        <v>-201299.2293793303</v>
+        <v>-202335.4562481764</v>
       </c>
       <c r="F6" t="n">
-        <v>206297.4788277636</v>
+        <v>198684.0987116001</v>
       </c>
       <c r="G6" t="n">
-        <v>206297.4788277638</v>
+        <v>198684.0987116008</v>
       </c>
       <c r="H6" t="n">
-        <v>206297.4788277638</v>
+        <v>198684.0987116008</v>
       </c>
       <c r="I6" t="n">
-        <v>-475.8377709317574</v>
+        <v>-4549.833149101534</v>
       </c>
       <c r="J6" t="n">
-        <v>229904.7618265518</v>
+        <v>225830.7664483821</v>
       </c>
       <c r="K6" t="n">
-        <v>252766.6115495613</v>
+        <v>250075.9944401802</v>
       </c>
       <c r="L6" t="n">
-        <v>245180.400877442</v>
+        <v>238273.3945682909</v>
       </c>
       <c r="M6" t="n">
-        <v>152316.579118911</v>
+        <v>149692.5890044653</v>
       </c>
       <c r="N6" t="n">
-        <v>254149.9898183497</v>
+        <v>250075.9944401799</v>
       </c>
       <c r="O6" t="n">
-        <v>254149.9898183496</v>
+        <v>250075.9944401801</v>
       </c>
       <c r="P6" t="n">
-        <v>254149.9898183497</v>
+        <v>250075.9944401801</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641656</v>
+        <v>457.5913187641657</v>
       </c>
       <c r="C3" t="n">
-        <v>462.7112346212333</v>
+        <v>457.5913187641657</v>
       </c>
       <c r="D3" t="n">
-        <v>498.2385464818186</v>
+        <v>504.2627498128141</v>
       </c>
       <c r="E3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="F3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="G3" t="n">
         <v>853.7106645376848</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="C4" t="n">
-        <v>98.04004747064909</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="D4" t="n">
-        <v>133.4802209296328</v>
+        <v>139.2987682391609</v>
       </c>
       <c r="E4" t="n">
-        <v>542.1149567261642</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="F4" t="n">
-        <v>542.1149567261641</v>
+        <v>542.1149567261638</v>
       </c>
       <c r="G4" t="n">
-        <v>542.1149567261641</v>
+        <v>542.1149567261639</v>
       </c>
       <c r="H4" t="n">
         <v>542.1149567261641</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="J4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="K4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022924</v>
@@ -26828,10 +26828,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641656</v>
+        <v>457.5913187641657</v>
       </c>
       <c r="C3" t="n">
-        <v>5.119915857067724</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>35.52731186058526</v>
+        <v>46.6714310486484</v>
       </c>
       <c r="E3" t="n">
-        <v>355.4721180558664</v>
+        <v>349.44791472487</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="C4" t="n">
-        <v>5.375098181546804</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>35.44017345898374</v>
+        <v>46.63381895005849</v>
       </c>
       <c r="E4" t="n">
-        <v>408.6347357965313</v>
+        <v>402.8161884870023</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>289.2864986761285</v>
+        <v>289.2864986761283</v>
       </c>
       <c r="J4" t="n">
-        <v>92.66494928910205</v>
+        <v>92.66494928910259</v>
       </c>
       <c r="K4" t="n">
-        <v>5.375098181546804</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>35.44017345898396</v>
+        <v>46.63381895005872</v>
       </c>
       <c r="M4" t="n">
-        <v>408.6347357965311</v>
+        <v>402.8161884870019</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="K4" t="n">
-        <v>5.375098181546804</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>35.44017345898374</v>
+        <v>46.63381895005849</v>
       </c>
       <c r="M4" t="n">
-        <v>408.6347357965313</v>
+        <v>402.8161884870023</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.839563090509207</v>
+        <v>1.839563090509208</v>
       </c>
       <c r="H2" t="n">
-        <v>18.83942550067742</v>
+        <v>18.83942550067743</v>
       </c>
       <c r="I2" t="n">
-        <v>70.91975604685626</v>
+        <v>70.91975604685629</v>
       </c>
       <c r="J2" t="n">
-        <v>156.1306178531059</v>
+        <v>156.130617853106</v>
       </c>
       <c r="K2" t="n">
-        <v>233.9993234743607</v>
+        <v>233.9993234743608</v>
       </c>
       <c r="L2" t="n">
-        <v>290.2968524055319</v>
+        <v>290.296852405532</v>
       </c>
       <c r="M2" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163751</v>
       </c>
       <c r="N2" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856933</v>
       </c>
       <c r="O2" t="n">
-        <v>309.9456856660334</v>
+        <v>309.9456856660335</v>
       </c>
       <c r="P2" t="n">
-        <v>264.5314718690873</v>
+        <v>264.5314718690874</v>
       </c>
       <c r="Q2" t="n">
         <v>198.6521186902263</v>
@@ -31077,13 +31077,13 @@
         <v>115.5544549841991</v>
       </c>
       <c r="S2" t="n">
-        <v>41.9190439249786</v>
+        <v>41.91904392497861</v>
       </c>
       <c r="T2" t="n">
-        <v>8.052687428704058</v>
+        <v>8.052687428704061</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1471650472407365</v>
+        <v>0.1471650472407366</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9842530252663184</v>
+        <v>0.9842530252663189</v>
       </c>
       <c r="H3" t="n">
-        <v>9.505812112440498</v>
+        <v>9.505812112440502</v>
       </c>
       <c r="I3" t="n">
-        <v>33.88765898395</v>
+        <v>33.88765898395002</v>
       </c>
       <c r="J3" t="n">
-        <v>92.99032639149898</v>
+        <v>92.99032639149902</v>
       </c>
       <c r="K3" t="n">
-        <v>158.9352790843423</v>
+        <v>158.9352790843424</v>
       </c>
       <c r="L3" t="n">
-        <v>213.7080965605662</v>
+        <v>213.7080965605663</v>
       </c>
       <c r="M3" t="n">
-        <v>234.7989832111206</v>
+        <v>234.7989832111207</v>
       </c>
       <c r="N3" t="n">
-        <v>217.7623764228818</v>
+        <v>163.7876250036814</v>
       </c>
       <c r="O3" t="n">
-        <v>234.1788327264122</v>
+        <v>234.1788327264123</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.9491588335307</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.6390352953988</v>
+        <v>125.6390352953989</v>
       </c>
       <c r="R3" t="n">
-        <v>61.11002555118425</v>
+        <v>61.11002555118427</v>
       </c>
       <c r="S3" t="n">
-        <v>18.28206825439849</v>
+        <v>18.2820682543985</v>
       </c>
       <c r="T3" t="n">
-        <v>3.967230395700642</v>
+        <v>3.967230395700643</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.0647534885043631</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8251646731812821</v>
+        <v>0.8251646731812824</v>
       </c>
       <c r="H4" t="n">
-        <v>7.336464094284495</v>
+        <v>7.336464094284498</v>
       </c>
       <c r="I4" t="n">
         <v>24.81495217166984</v>
       </c>
       <c r="J4" t="n">
-        <v>58.33914239391664</v>
+        <v>58.33914239391666</v>
       </c>
       <c r="K4" t="n">
-        <v>95.86913202960712</v>
+        <v>95.86913202960716</v>
       </c>
       <c r="L4" t="n">
-        <v>122.6794824109699</v>
+        <v>122.67948241097</v>
       </c>
       <c r="M4" t="n">
-        <v>129.3483132696804</v>
+        <v>129.3483132696805</v>
       </c>
       <c r="N4" t="n">
-        <v>126.272699487823</v>
+        <v>126.2726994878231</v>
       </c>
       <c r="O4" t="n">
         <v>116.6332758056598</v>
       </c>
       <c r="P4" t="n">
-        <v>99.79991647276157</v>
+        <v>99.79991647276161</v>
       </c>
       <c r="Q4" t="n">
-        <v>69.09628913338901</v>
+        <v>69.09628913338902</v>
       </c>
       <c r="R4" t="n">
-        <v>37.102404305042</v>
+        <v>37.10240430504201</v>
       </c>
       <c r="S4" t="n">
         <v>14.38036980444107</v>
       </c>
       <c r="T4" t="n">
-        <v>3.52570360359275</v>
+        <v>3.525703603592751</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04500898217352453</v>
+        <v>0.04500898217352454</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.860145666819027</v>
+        <v>1.839563090509208</v>
       </c>
       <c r="H5" t="n">
-        <v>19.05021681031036</v>
+        <v>18.83942550067743</v>
       </c>
       <c r="I5" t="n">
-        <v>71.7132658200406</v>
+        <v>70.91975604685629</v>
       </c>
       <c r="J5" t="n">
-        <v>157.8775382891815</v>
+        <v>156.130617853106</v>
       </c>
       <c r="K5" t="n">
-        <v>236.617504365631</v>
+        <v>233.9993234743608</v>
       </c>
       <c r="L5" t="n">
-        <v>293.5449373165439</v>
+        <v>290.296852405532</v>
       </c>
       <c r="M5" t="n">
-        <v>326.6253028188367</v>
+        <v>323.0111825163751</v>
       </c>
       <c r="N5" t="n">
-        <v>327.45311106724</v>
+        <v>322.0780128856934</v>
       </c>
       <c r="O5" t="n">
-        <v>313.4136182202545</v>
+        <v>309.9456856660335</v>
       </c>
       <c r="P5" t="n">
-        <v>267.4912720706598</v>
+        <v>264.5314718690874</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.8748053777033</v>
+        <v>198.6521186902263</v>
       </c>
       <c r="R5" t="n">
-        <v>116.8473752433208</v>
+        <v>115.5544549841991</v>
       </c>
       <c r="S5" t="n">
-        <v>42.38806938263862</v>
+        <v>41.91904392497861</v>
       </c>
       <c r="T5" t="n">
-        <v>8.142787656500294</v>
+        <v>8.052687428704061</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1488116533455221</v>
+        <v>0.1471650472407366</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9952656744683132</v>
+        <v>0.9842530252663189</v>
       </c>
       <c r="H6" t="n">
-        <v>9.612171119207131</v>
+        <v>9.505812112440502</v>
       </c>
       <c r="I6" t="n">
-        <v>34.26682256393097</v>
+        <v>33.88765898395002</v>
       </c>
       <c r="J6" t="n">
-        <v>94.03078023562253</v>
+        <v>92.99032639149902</v>
       </c>
       <c r="K6" t="n">
-        <v>160.7135804249995</v>
+        <v>158.9352790843424</v>
       </c>
       <c r="L6" t="n">
-        <v>216.0992421690958</v>
+        <v>213.7080965605663</v>
       </c>
       <c r="M6" t="n">
-        <v>240.1740813926674</v>
+        <v>174.5799468423668</v>
       </c>
       <c r="N6" t="n">
-        <v>229.3817595539824</v>
+        <v>224.0066613724358</v>
       </c>
       <c r="O6" t="n">
-        <v>178.2204371008108</v>
+        <v>234.1788327264123</v>
       </c>
       <c r="P6" t="n">
-        <v>190.0520918201817</v>
+        <v>187.9491588335307</v>
       </c>
       <c r="Q6" t="n">
-        <v>127.0447903058149</v>
+        <v>125.6390352953989</v>
       </c>
       <c r="R6" t="n">
-        <v>61.79377582356775</v>
+        <v>61.11002555118427</v>
       </c>
       <c r="S6" t="n">
-        <v>18.48662338321624</v>
+        <v>18.2820682543985</v>
       </c>
       <c r="T6" t="n">
-        <v>4.011619100159559</v>
+        <v>3.967230395700643</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06547800489923115</v>
+        <v>0.0647534885043631</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8343973083333714</v>
+        <v>0.8251646731812824</v>
       </c>
       <c r="H7" t="n">
-        <v>7.418550614091253</v>
+        <v>7.336464094284498</v>
       </c>
       <c r="I7" t="n">
-        <v>25.09260269060722</v>
+        <v>24.81495217166984</v>
       </c>
       <c r="J7" t="n">
-        <v>58.99188969916936</v>
+        <v>58.33914239391666</v>
       </c>
       <c r="K7" t="n">
-        <v>96.94179636818622</v>
+        <v>95.86913202960716</v>
       </c>
       <c r="L7" t="n">
-        <v>124.0521234589451</v>
+        <v>122.67948241097</v>
       </c>
       <c r="M7" t="n">
-        <v>130.7955707962938</v>
+        <v>129.3483132696805</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652332</v>
+        <v>126.2726994878231</v>
       </c>
       <c r="O7" t="n">
-        <v>117.9382668178842</v>
+        <v>116.6332758056598</v>
       </c>
       <c r="P7" t="n">
-        <v>100.9165617278834</v>
+        <v>99.79991647276161</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.86939642780622</v>
+        <v>69.09628913338902</v>
       </c>
       <c r="R7" t="n">
-        <v>37.51753715469867</v>
+        <v>37.10240430504201</v>
       </c>
       <c r="S7" t="n">
-        <v>14.54126945522793</v>
+        <v>14.38036980444107</v>
       </c>
       <c r="T7" t="n">
-        <v>3.565152135606223</v>
+        <v>3.525703603592751</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04551258045454758</v>
+        <v>0.04500898217352454</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.002969031082686</v>
+        <v>2.027186933920859</v>
       </c>
       <c r="H8" t="n">
-        <v>20.51290658957556</v>
+        <v>20.76092818701701</v>
       </c>
       <c r="I8" t="n">
-        <v>77.21946357081534</v>
+        <v>78.153124269984</v>
       </c>
       <c r="J8" t="n">
-        <v>169.9994928018543</v>
+        <v>172.0549570328657</v>
       </c>
       <c r="K8" t="n">
-        <v>254.7851718875845</v>
+        <v>257.8657799457357</v>
       </c>
       <c r="L8" t="n">
-        <v>316.0835353725813</v>
+        <v>319.9053020747163</v>
       </c>
       <c r="M8" t="n">
-        <v>351.703835879098</v>
+        <v>355.9562877108314</v>
       </c>
       <c r="N8" t="n">
-        <v>357.3947716386617</v>
+        <v>361.716032586834</v>
       </c>
       <c r="O8" t="n">
-        <v>337.4777483358332</v>
+        <v>341.5581925126585</v>
       </c>
       <c r="P8" t="n">
-        <v>288.0294503809794</v>
+        <v>291.5120150814872</v>
       </c>
       <c r="Q8" t="n">
-        <v>216.2981219553306</v>
+        <v>218.9133830104464</v>
       </c>
       <c r="R8" t="n">
-        <v>125.8190033987479</v>
+        <v>127.3402812379063</v>
       </c>
       <c r="S8" t="n">
-        <v>45.64265679579675</v>
+        <v>46.19452225672163</v>
       </c>
       <c r="T8" t="n">
-        <v>8.767996933564463</v>
+        <v>8.874010803238566</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1602375224866149</v>
+        <v>0.1621749547136687</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.071682911300516</v>
+        <v>1.084640631672846</v>
       </c>
       <c r="H9" t="n">
-        <v>10.35020074861287</v>
+        <v>10.47534504799827</v>
       </c>
       <c r="I9" t="n">
-        <v>36.89785462153091</v>
+        <v>37.34398666066596</v>
       </c>
       <c r="J9" t="n">
-        <v>101.2505332996684</v>
+        <v>102.4747537143192</v>
       </c>
       <c r="K9" t="n">
-        <v>173.053288356803</v>
+        <v>175.1456760363998</v>
       </c>
       <c r="L9" t="n">
-        <v>232.6915022979475</v>
+        <v>235.5049757498431</v>
       </c>
       <c r="M9" t="n">
-        <v>271.5400078325911</v>
+        <v>231.5355377037768</v>
       </c>
       <c r="N9" t="n">
-        <v>218.0601024804905</v>
+        <v>270.6404803224942</v>
       </c>
       <c r="O9" t="n">
-        <v>254.9806267075397</v>
+        <v>258.063598010337</v>
       </c>
       <c r="P9" t="n">
-        <v>204.6444324219379</v>
+        <v>207.118788691984</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.7993835547816</v>
+        <v>138.4534251938882</v>
       </c>
       <c r="R9" t="n">
-        <v>66.53834777355308</v>
+        <v>67.34286307877547</v>
       </c>
       <c r="S9" t="n">
-        <v>19.90604004104246</v>
+        <v>20.1467240137478</v>
       </c>
       <c r="T9" t="n">
-        <v>4.319634190724444</v>
+        <v>4.371862896962038</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07050545469082341</v>
+        <v>0.07135793629426618</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8984629526721317</v>
+        <v>0.9093262701542549</v>
       </c>
       <c r="H10" t="n">
-        <v>7.988152433757686</v>
+        <v>8.084737201916926</v>
       </c>
       <c r="I10" t="n">
-        <v>27.0192313403583</v>
+        <v>27.34592092427524</v>
       </c>
       <c r="J10" t="n">
-        <v>63.52133075391971</v>
+        <v>64.28936729990582</v>
       </c>
       <c r="K10" t="n">
-        <v>104.3850594104531</v>
+        <v>105.6471793870125</v>
       </c>
       <c r="L10" t="n">
-        <v>133.5769375272731</v>
+        <v>135.1920165645699</v>
       </c>
       <c r="M10" t="n">
-        <v>140.8381517538688</v>
+        <v>142.5410261479074</v>
       </c>
       <c r="N10" t="n">
-        <v>137.4893352939091</v>
+        <v>139.1517191409689</v>
       </c>
       <c r="O10" t="n">
-        <v>126.9936544376937</v>
+        <v>128.529134985076</v>
       </c>
       <c r="P10" t="n">
-        <v>108.6650102031821</v>
+        <v>109.9788790739291</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.2340205187546</v>
+        <v>76.14367522173494</v>
       </c>
       <c r="R10" t="n">
-        <v>40.39816149014875</v>
+        <v>40.88661574711767</v>
       </c>
       <c r="S10" t="n">
-        <v>15.65775891156796</v>
+        <v>15.84707690805187</v>
       </c>
       <c r="T10" t="n">
-        <v>3.838887161417289</v>
+        <v>3.885303154295452</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04900707014575269</v>
+        <v>0.04959961473568669</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H11" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I11" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J11" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K11" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L11" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M11" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N11" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O11" t="n">
-        <v>578.2538401190909</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P11" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q11" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S11" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T11" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H12" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I12" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J12" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K12" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L12" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M12" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N12" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O12" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P12" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q12" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R12" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S12" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T12" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H13" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I13" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J13" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K13" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L13" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M13" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N13" t="n">
-        <v>235.5821576420141</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O13" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P13" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R13" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S13" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T13" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H14" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I14" t="n">
         <v>132.312282993323</v>
@@ -32007,13 +32007,13 @@
         <v>541.5957615840431</v>
       </c>
       <c r="M14" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N14" t="n">
         <v>612.3808166839013</v>
       </c>
       <c r="O14" t="n">
-        <v>578.2538401190909</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P14" t="n">
         <v>493.5262741662302</v>
@@ -32025,10 +32025,10 @@
         <v>215.5855378141321</v>
       </c>
       <c r="S14" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T14" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U14" t="n">
         <v>0.2745602137206622</v>
@@ -32077,16 +32077,16 @@
         <v>63.2229124209512</v>
       </c>
       <c r="J15" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K15" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L15" t="n">
         <v>398.7070419616801</v>
       </c>
       <c r="M15" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N15" t="n">
         <v>477.5866858152847</v>
@@ -32095,7 +32095,7 @@
         <v>436.8985133884509</v>
       </c>
       <c r="P15" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q15" t="n">
         <v>234.3999545349508</v>
@@ -32147,28 +32147,28 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H16" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I16" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J16" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K16" t="n">
         <v>178.8593818490428</v>
       </c>
       <c r="L16" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M16" t="n">
         <v>241.3202129282508</v>
       </c>
       <c r="N16" t="n">
-        <v>235.5821576420141</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O16" t="n">
         <v>217.5982526595398</v>
@@ -32180,16 +32180,16 @@
         <v>128.9103103451904</v>
       </c>
       <c r="R16" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S16" t="n">
         <v>26.82890727735641</v>
       </c>
       <c r="T16" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953989</v>
+        <v>371.8329054953998</v>
       </c>
       <c r="K44" t="n">
         <v>557.2811376003808</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13.90947242938017</v>
+        <v>13.90947242938026</v>
       </c>
       <c r="L2" t="n">
-        <v>54.53043743554468</v>
+        <v>54.5304374355448</v>
       </c>
       <c r="M2" t="n">
-        <v>92.66494928910228</v>
+        <v>92.6649492891024</v>
       </c>
       <c r="N2" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="O2" t="n">
-        <v>79.84747424434667</v>
+        <v>79.84747424434678</v>
       </c>
       <c r="P2" t="n">
-        <v>33.29847611381774</v>
+        <v>33.29847611381786</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>21.09384010998332</v>
+        <v>21.09384010998338</v>
       </c>
       <c r="L3" t="n">
-        <v>75.15371678069204</v>
+        <v>75.15371678069212</v>
       </c>
       <c r="M3" t="n">
-        <v>92.66494928910228</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="N3" t="n">
-        <v>86.42066433954851</v>
+        <v>32.44591292034811</v>
       </c>
       <c r="O3" t="n">
-        <v>91.58258828196773</v>
+        <v>91.58258828196782</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>53.97475141920043</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>16.52765332065042</v>
+        <v>13.90947242938026</v>
       </c>
       <c r="L5" t="n">
-        <v>57.77852234655666</v>
+        <v>54.5304374355448</v>
       </c>
       <c r="M5" t="n">
-        <v>96.27906959156397</v>
+        <v>92.6649492891024</v>
       </c>
       <c r="N5" t="n">
-        <v>98.04004747064909</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="O5" t="n">
-        <v>83.31540679856781</v>
+        <v>79.84747424434678</v>
       </c>
       <c r="P5" t="n">
-        <v>36.25827631539028</v>
+        <v>33.29847611381786</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>22.87214145064053</v>
+        <v>21.09384010998338</v>
       </c>
       <c r="L6" t="n">
-        <v>77.54486238922163</v>
+        <v>75.15371678069212</v>
       </c>
       <c r="M6" t="n">
-        <v>98.04004747064909</v>
+        <v>32.44591292034846</v>
       </c>
       <c r="N6" t="n">
-        <v>98.04004747064909</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="O6" t="n">
-        <v>35.62419265636635</v>
+        <v>91.58258828196782</v>
       </c>
       <c r="P6" t="n">
-        <v>56.07768440585144</v>
+        <v>53.97475141920043</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>34.69532084260391</v>
+        <v>37.77592890075516</v>
       </c>
       <c r="L8" t="n">
-        <v>80.31712040259401</v>
+        <v>84.13888710472906</v>
       </c>
       <c r="M8" t="n">
-        <v>121.3576026518253</v>
+        <v>125.6100544835586</v>
       </c>
       <c r="N8" t="n">
-        <v>127.9817080420707</v>
+        <v>132.3029689902431</v>
       </c>
       <c r="O8" t="n">
-        <v>107.3795369141465</v>
+        <v>111.4599810909718</v>
       </c>
       <c r="P8" t="n">
-        <v>56.79645462570983</v>
+        <v>60.27901932621768</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>35.21184938244397</v>
+        <v>37.30423706204081</v>
       </c>
       <c r="L9" t="n">
-        <v>94.13712251807328</v>
+        <v>96.9505959699689</v>
       </c>
       <c r="M9" t="n">
-        <v>129.4059739105728</v>
+        <v>89.40150378175849</v>
       </c>
       <c r="N9" t="n">
-        <v>86.71839039715718</v>
+        <v>139.2987682391609</v>
       </c>
       <c r="O9" t="n">
-        <v>112.3843822630953</v>
+        <v>115.4673535658926</v>
       </c>
       <c r="P9" t="n">
-        <v>70.67002500760768</v>
+        <v>73.14438127765376</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,13 +35336,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.3073402833315981</v>
       </c>
       <c r="M10" t="n">
-        <v>1.912367806263717</v>
+        <v>3.615242200302362</v>
       </c>
       <c r="N10" t="n">
-        <v>9.803790828675943</v>
+        <v>11.46617467573574</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K11" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L11" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M11" t="n">
-        <v>372.2834058662057</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N11" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O11" t="n">
-        <v>348.1556286974042</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P11" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>46.65087734093967</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K12" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L12" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M12" t="n">
-        <v>323.1382782510199</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N12" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O12" t="n">
-        <v>294.3022689440065</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P12" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M13" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N13" t="n">
-        <v>107.8966131767809</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O13" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P13" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>110.2410322142397</v>
       </c>
       <c r="K14" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L14" t="n">
         <v>305.8293466140559</v>
       </c>
       <c r="M14" t="n">
-        <v>372.2834058662057</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N14" t="n">
         <v>382.9677530873104</v>
       </c>
       <c r="O14" t="n">
-        <v>348.1556286974042</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P14" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q14" t="n">
         <v>148.3119886183904</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>46.65087734093967</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K15" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L15" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M15" t="n">
-        <v>323.1382782510199</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N15" t="n">
         <v>346.2449737319514</v>
       </c>
       <c r="O15" t="n">
-        <v>294.3022689440065</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P15" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M16" t="n">
         <v>102.3944289806457</v>
       </c>
       <c r="N16" t="n">
-        <v>107.8966131767809</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O16" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P16" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K34" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M34" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N34" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O34" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687135</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554003</v>
